--- a/tvtower-real-2024-12.export/Whisky distil list all.xlsx
+++ b/tvtower-real-2024-12.export/Whisky distil list all.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4783" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4971" uniqueCount="726">
   <si>
     <t>Distillery</t>
   </si>
@@ -2142,6 +2142,73 @@
   </si>
   <si>
     <t>Cupar / Daftmill spring</t>
+  </si>
+  <si>
+    <t>Ben Vrackie Springs</t>
+  </si>
+  <si>
+    <t>Sources on the Grampian mountains</t>
+  </si>
+  <si>
+    <t>River South Esk</t>
+  </si>
+  <si>
+    <t>Dronac Burn</t>
+  </si>
+  <si>
+    <t>Rosarie Burn</t>
+  </si>
+  <si>
+    <t>Loch Turret in Glenturret</t>
+  </si>
+  <si>
+    <t>Oak</t>
+  </si>
+  <si>
+    <t>The Glenturret</t>
+  </si>
+  <si>
+    <t>European Sherry Hogshead, American Oak Refill Hogshead, American Standard Barrel, European Sherry Quarter
+European Sherry Firki</t>
+  </si>
+  <si>
+    <t>Abhainn Cnoc a’Charrainn</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Flowers of May and Goathill springs</t>
+  </si>
+  <si>
+    <t>Local Springs</t>
+  </si>
+  <si>
+    <t>Tobar na ba baine spring and borehole</t>
+  </si>
+  <si>
+    <t>Carron Valley Reservoir</t>
+  </si>
+  <si>
+    <t>Granty Burn</t>
+  </si>
+  <si>
+    <t>River Tromie</t>
+  </si>
+  <si>
+    <t>Ballantruan spring</t>
+  </si>
+  <si>
+    <t>Tomintoul, Tomintoul Peaty Tang</t>
+  </si>
+  <si>
+    <t>Ochil Hills, Danny Burn</t>
+  </si>
+  <si>
+    <t>Wolf Burn</t>
+  </si>
+  <si>
+    <t>American Oak Bourbon, Oak Quarter Cask, Bourbon Hogsheads, Oloroso sherry</t>
   </si>
 </sst>
 </file>
@@ -2544,10 +2611,10 @@
   <dimension ref="A1:V430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D283" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
+      <selection pane="bottomRight" activeCell="A291" sqref="A291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5727,11 +5794,35 @@
       <c r="E54" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="F54" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L54" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M54" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="O54" s="10" t="s">
+        <v>534</v>
       </c>
       <c r="P54" s="8" t="s">
         <v>534</v>
@@ -5821,11 +5912,35 @@
       <c r="E56" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="F56" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L56" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M56" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="O56" s="10" t="s">
+        <v>534</v>
       </c>
       <c r="P56" s="8" t="s">
         <v>534</v>
@@ -5856,11 +5971,35 @@
       <c r="E57" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="F57" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L57" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M57" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N57" s="9">
+        <v>60000</v>
+      </c>
+      <c r="O57" s="10" t="s">
+        <v>534</v>
       </c>
       <c r="P57" s="8" t="s">
         <v>534</v>
@@ -5891,11 +6030,35 @@
       <c r="E58" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="F58" s="8">
+        <v>1</v>
+      </c>
+      <c r="G58" s="9">
+        <v>4200</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="J58" s="8">
+        <v>1</v>
+      </c>
+      <c r="K58" s="9">
+        <v>2200</v>
+      </c>
       <c r="L58" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M58" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N58" s="9">
+        <v>95000</v>
+      </c>
+      <c r="O58" s="10" t="s">
+        <v>704</v>
       </c>
       <c r="P58" s="8" t="s">
         <v>534</v>
@@ -5926,11 +6089,35 @@
       <c r="E59" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="F59" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L59" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M59" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N59" s="9">
+        <v>200000</v>
+      </c>
+      <c r="O59" s="10" t="s">
+        <v>534</v>
       </c>
       <c r="P59" s="8" t="s">
         <v>534</v>
@@ -5961,11 +6148,35 @@
       <c r="E60" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="F60" s="8">
+        <v>2</v>
+      </c>
+      <c r="G60" s="9">
+        <v>12800</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="J60" s="8">
+        <v>2</v>
+      </c>
+      <c r="K60" s="9">
+        <v>12800</v>
+      </c>
       <c r="L60" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N60" s="9">
+        <v>2200000</v>
+      </c>
+      <c r="O60" s="10" t="s">
+        <v>705</v>
       </c>
       <c r="P60" s="8" t="s">
         <v>534</v>
@@ -6114,11 +6325,35 @@
       <c r="E63" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="F63" s="8">
+        <v>3</v>
+      </c>
+      <c r="G63" s="9">
+        <v>11750</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="J63" s="8">
+        <v>3</v>
+      </c>
+      <c r="K63" s="9">
+        <v>15000</v>
+      </c>
       <c r="L63" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M63" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N63" s="9">
+        <v>4200000</v>
+      </c>
+      <c r="O63" s="10" t="s">
+        <v>534</v>
       </c>
       <c r="P63" s="8" t="s">
         <v>534</v>
@@ -6149,11 +6384,35 @@
       <c r="E64" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="F64" s="8">
+        <v>1</v>
+      </c>
+      <c r="G64" s="9">
+        <v>14000</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="J64" s="8">
+        <v>1</v>
+      </c>
+      <c r="K64" s="9">
+        <v>14000</v>
+      </c>
       <c r="L64" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M64" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N64" s="9">
+        <v>1500000</v>
+      </c>
+      <c r="O64" s="10" t="s">
+        <v>706</v>
       </c>
       <c r="P64" s="8" t="s">
         <v>534</v>
@@ -6184,11 +6443,35 @@
       <c r="E65" s="6" t="s">
         <v>71</v>
       </c>
+      <c r="F65" s="8">
+        <v>2</v>
+      </c>
+      <c r="G65" s="9">
+        <v>13635</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="J65" s="8">
+        <v>2</v>
+      </c>
+      <c r="K65" s="9">
+        <v>6800</v>
+      </c>
       <c r="L65" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M65" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N65" s="9">
+        <v>1300000</v>
+      </c>
+      <c r="O65" s="10" t="s">
+        <v>707</v>
       </c>
       <c r="P65" s="8" t="s">
         <v>534</v>
@@ -7349,11 +7632,35 @@
       <c r="E85" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="F85" s="8">
+        <v>3</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="J85" s="8">
+        <v>3</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L85" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M85" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N85" s="9">
+        <v>4500000</v>
+      </c>
+      <c r="O85" s="10" t="s">
+        <v>708</v>
       </c>
       <c r="P85" s="8" t="s">
         <v>534</v>
@@ -7384,20 +7691,47 @@
       <c r="E86" s="6" t="s">
         <v>190</v>
       </c>
+      <c r="F86" s="8">
+        <v>1</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="J86" s="8">
+        <v>1</v>
+      </c>
+      <c r="K86" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L86" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M86" s="8" t="s">
         <v>582</v>
       </c>
+      <c r="N86" s="9">
+        <v>340000</v>
+      </c>
+      <c r="O86" s="10" t="s">
+        <v>709</v>
+      </c>
       <c r="P86" s="8" t="s">
-        <v>534</v>
+        <v>710</v>
       </c>
       <c r="Q86" s="8" t="s">
         <v>531</v>
       </c>
       <c r="R86" s="8" t="s">
         <v>533</v>
+      </c>
+      <c r="S86" s="8" t="s">
+        <v>711</v>
       </c>
       <c r="T86" s="8" t="s">
         <v>538</v>
@@ -7419,14 +7753,38 @@
       <c r="E87" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="F87" s="8">
+        <v>2</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="J87" s="8">
+        <v>2</v>
+      </c>
+      <c r="K87" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L87" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M87" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="P87" s="8" t="s">
-        <v>534</v>
+      <c r="N87" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="O87" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="P87" s="10" t="s">
+        <v>712</v>
       </c>
       <c r="Q87" s="8" t="s">
         <v>531</v>
@@ -7454,11 +7812,35 @@
       <c r="E88" s="6" t="s">
         <v>196</v>
       </c>
+      <c r="F88" s="8">
+        <v>1</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="J88" s="8">
+        <v>1</v>
+      </c>
+      <c r="K88" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L88" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M88" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N88" s="9">
+        <v>230000</v>
+      </c>
+      <c r="O88" s="10" t="s">
+        <v>713</v>
       </c>
       <c r="P88" s="8" t="s">
         <v>534</v>
@@ -7548,11 +7930,35 @@
       <c r="E90" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="F90" s="8">
+        <v>1</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="J90" s="8">
+        <v>1</v>
+      </c>
+      <c r="K90" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L90" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M90" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N90" s="9">
+        <v>53000</v>
+      </c>
+      <c r="O90" s="10" t="s">
+        <v>534</v>
       </c>
       <c r="P90" s="8" t="s">
         <v>534</v>
@@ -7583,14 +7989,38 @@
       <c r="E91" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="F91" s="8">
+        <v>1</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="J91" s="8">
+        <v>1</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L91" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M91" s="8" t="s">
         <v>582</v>
       </c>
+      <c r="N91" s="9">
+        <v>2000000</v>
+      </c>
+      <c r="O91" s="10" t="s">
+        <v>534</v>
+      </c>
       <c r="P91" s="8" t="s">
-        <v>534</v>
+        <v>715</v>
       </c>
       <c r="Q91" s="8" t="s">
         <v>531</v>
@@ -8423,11 +8853,35 @@
       <c r="E106" s="1" t="s">
         <v>226</v>
       </c>
+      <c r="F106" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="J106" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="K106" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L106" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M106" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N106" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="O106" s="10" t="s">
+        <v>534</v>
       </c>
       <c r="P106" s="8" t="s">
         <v>534</v>
@@ -8520,11 +8974,35 @@
       <c r="E108" s="6" t="s">
         <v>231</v>
       </c>
+      <c r="F108" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="J108" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="K108" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L108" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M108" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N108" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="O108" s="10" t="s">
+        <v>534</v>
       </c>
       <c r="P108" s="8" t="s">
         <v>534</v>
@@ -8555,11 +9033,35 @@
       <c r="E109" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="F109" s="8">
+        <v>4</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="J109" s="8">
+        <v>4</v>
+      </c>
+      <c r="K109" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L109" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M109" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N109" s="9">
+        <v>3500000</v>
+      </c>
+      <c r="O109" s="10" t="s">
+        <v>716</v>
       </c>
       <c r="P109" s="8" t="s">
         <v>534</v>
@@ -8885,11 +9387,35 @@
       <c r="E115" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="F115" s="8">
+        <v>1</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="J115" s="8">
+        <v>1</v>
+      </c>
+      <c r="K115" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L115" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M115" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N115" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="O115" s="10" t="s">
+        <v>534</v>
       </c>
       <c r="P115" s="8" t="s">
         <v>534</v>
@@ -8920,11 +9446,35 @@
       <c r="E116" s="1" t="s">
         <v>243</v>
       </c>
+      <c r="F116" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="J116" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="K116" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L116" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M116" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N116" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="O116" s="10" t="s">
+        <v>534</v>
       </c>
       <c r="P116" s="8" t="s">
         <v>534</v>
@@ -9073,11 +9623,35 @@
       <c r="E119" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="F119" s="8">
+        <v>1</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="J119" s="8">
+        <v>1</v>
+      </c>
+      <c r="K119" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L119" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M119" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N119" s="9">
+        <v>400000</v>
+      </c>
+      <c r="O119" s="10" t="s">
+        <v>534</v>
       </c>
       <c r="P119" s="8" t="s">
         <v>534</v>
@@ -9167,11 +9741,35 @@
       <c r="E121" s="1" t="s">
         <v>251</v>
       </c>
+      <c r="F121" s="8">
+        <v>1</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="J121" s="8">
+        <v>1</v>
+      </c>
+      <c r="K121" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L121" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M121" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N121" s="9">
+        <v>940000</v>
+      </c>
+      <c r="O121" s="10" t="s">
+        <v>717</v>
       </c>
       <c r="P121" s="8" t="s">
         <v>534</v>
@@ -9202,11 +9800,35 @@
       <c r="E122" s="6" t="s">
         <v>162</v>
       </c>
+      <c r="F122" s="8">
+        <v>2</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="J122" s="8">
+        <v>1</v>
+      </c>
+      <c r="K122" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L122" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M122" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N122" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="O122" s="10" t="s">
+        <v>718</v>
       </c>
       <c r="P122" s="8" t="s">
         <v>534</v>
@@ -9216,6 +9838,9 @@
       </c>
       <c r="R122" s="8" t="s">
         <v>533</v>
+      </c>
+      <c r="S122" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="T122" s="8" t="s">
         <v>538</v>
@@ -9414,11 +10039,35 @@
       <c r="E126" s="1" t="s">
         <v>260</v>
       </c>
+      <c r="F126" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="J126" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="K126" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L126" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M126" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N126" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="O126" s="10" t="s">
+        <v>534</v>
       </c>
       <c r="P126" s="8" t="s">
         <v>534</v>
@@ -9511,11 +10160,35 @@
       <c r="E128" s="6" t="s">
         <v>56</v>
       </c>
+      <c r="F128" s="8">
+        <v>1</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I128" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="J128" s="8">
+        <v>1</v>
+      </c>
+      <c r="K128" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L128" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M128" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N128" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="O128" s="10" t="s">
+        <v>719</v>
       </c>
       <c r="P128" s="8" t="s">
         <v>534</v>
@@ -9546,11 +10219,35 @@
       <c r="E129" s="1" t="s">
         <v>264</v>
       </c>
+      <c r="F129" s="8">
+        <v>1</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="J129" s="8">
+        <v>1</v>
+      </c>
+      <c r="K129" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L129" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M129" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N129" s="9">
+        <v>600000</v>
+      </c>
+      <c r="O129" s="10" t="s">
+        <v>720</v>
       </c>
       <c r="P129" s="8" t="s">
         <v>534</v>
@@ -9643,11 +10340,35 @@
       <c r="E131" s="6" t="s">
         <v>269</v>
       </c>
+      <c r="F131" s="8">
+        <v>1</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="J131" s="8">
+        <v>1</v>
+      </c>
+      <c r="K131" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L131" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M131" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N131" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="O131" s="10" t="s">
+        <v>534</v>
       </c>
       <c r="P131" s="8" t="s">
         <v>534</v>
@@ -9678,11 +10399,35 @@
       <c r="E132" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="F132" s="8">
+        <v>2</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="J132" s="8">
+        <v>2</v>
+      </c>
+      <c r="K132" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L132" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M132" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N132" s="9">
+        <v>2400000</v>
+      </c>
+      <c r="O132" s="10" t="s">
+        <v>534</v>
       </c>
       <c r="P132" s="8" t="s">
         <v>534</v>
@@ -10135,11 +10880,35 @@
       <c r="E140" s="6" t="s">
         <v>147</v>
       </c>
+      <c r="F140" s="8">
+        <v>2</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H140" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I140" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="J140" s="8">
+        <v>2</v>
+      </c>
+      <c r="K140" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L140" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M140" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N140" s="9">
+        <v>2200000</v>
+      </c>
+      <c r="O140" s="10" t="s">
+        <v>721</v>
       </c>
       <c r="P140" s="8" t="s">
         <v>534</v>
@@ -10149,6 +10918,9 @@
       </c>
       <c r="R140" s="8" t="s">
         <v>533</v>
+      </c>
+      <c r="S140" s="8" t="s">
+        <v>722</v>
       </c>
       <c r="T140" s="8" t="s">
         <v>538</v>
@@ -10229,11 +11001,35 @@
       <c r="E142" s="1" t="s">
         <v>287</v>
       </c>
+      <c r="F142" s="8">
+        <v>4</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I142" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="J142" s="8">
+        <v>4</v>
+      </c>
+      <c r="K142" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L142" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M142" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N142" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="O142" s="10" t="s">
+        <v>534</v>
       </c>
       <c r="P142" s="8" t="s">
         <v>534</v>
@@ -10264,11 +11060,35 @@
       <c r="E143" s="1" t="s">
         <v>290</v>
       </c>
+      <c r="F143" s="8">
+        <v>2</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H143" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I143" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="J143" s="8">
+        <v>2</v>
+      </c>
+      <c r="K143" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L143" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M143" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N143" s="9">
+        <v>2700000</v>
+      </c>
+      <c r="O143" s="10" t="s">
+        <v>723</v>
       </c>
       <c r="P143" s="8" t="s">
         <v>534</v>
@@ -10299,11 +11119,35 @@
       <c r="E144" s="1" t="s">
         <v>293</v>
       </c>
+      <c r="F144" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H144" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="I144" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="J144" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="K144" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L144" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M144" s="8" t="s">
         <v>582</v>
+      </c>
+      <c r="N144" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="O144" s="10" t="s">
+        <v>534</v>
       </c>
       <c r="P144" s="8" t="s">
         <v>534</v>
@@ -10334,14 +11178,38 @@
       <c r="E145" s="1" t="s">
         <v>296</v>
       </c>
+      <c r="F145" s="8">
+        <v>1</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H145" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I145" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="J145" s="8">
+        <v>1</v>
+      </c>
+      <c r="K145" s="8" t="s">
+        <v>534</v>
+      </c>
       <c r="L145" s="8" t="s">
         <v>582</v>
       </c>
       <c r="M145" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="P145" s="8" t="s">
-        <v>534</v>
+      <c r="N145" s="9">
+        <v>125000</v>
+      </c>
+      <c r="O145" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="P145" s="10" t="s">
+        <v>725</v>
       </c>
       <c r="Q145" s="8" t="s">
         <v>531</v>
